--- a/GameDesign/HMcsv설명/CollectSpaceTable.xlsx
+++ b/GameDesign/HMcsv설명/CollectSpaceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821F8BA-1112-4D64-AFE2-8CA63049B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC07A8-FAC6-4DFC-B154-4F497B2FF164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="19440" windowHeight="10572" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2352" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollectSpaceTable" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3262C148-F46E-48FD-835D-037DCFCB6F60}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3262C148-F46E-48FD-835D-037DCFCB6F60}">
       <text>
         <r>
           <rPr>
@@ -1486,16 +1486,16 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1853,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1866,10 +1866,11 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1885,11 +1886,13 @@
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -1905,11 +1908,13 @@
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1925,11 +1930,13 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1945,11 +1952,13 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1965,11 +1974,13 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1985,11 +1996,13 @@
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2005,11 +2018,13 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2025,11 +2040,13 @@
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2045,11 +2062,13 @@
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2065,11 +2084,13 @@
       <c r="E10" s="2">
         <v>-1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2085,11 +2106,13 @@
       <c r="E11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -2105,11 +2128,13 @@
       <c r="E12" s="2">
         <v>-1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2125,11 +2150,13 @@
       <c r="E13" s="2">
         <v>-1</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2145,7 +2172,9 @@
       <c r="E14" s="2">
         <v>-1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2160,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4175CBD2-C81C-4AF6-8D47-973120B32D31}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2179,10 +2208,10 @@
       <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2197,10 +2226,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2211,8 +2240,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2221,8 +2250,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2231,8 +2260,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2241,8 +2270,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2251,8 +2280,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>

--- a/GameDesign/HMcsv설명/CollectSpaceTable.xlsx
+++ b/GameDesign/HMcsv설명/CollectSpaceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC07A8-FAC6-4DFC-B154-4F497B2FF164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C5F8DB-8E62-48B9-9867-06F05BB835B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollectSpaceTable" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>CollectSpaceID</t>
   </si>
@@ -700,12 +700,6 @@
   </si>
   <si>
     <t>CS_S3_Portal</t>
-  </si>
-  <si>
-    <t>MG_S3_Portal</t>
-  </si>
-  <si>
-    <t>MG_S3_a3</t>
   </si>
   <si>
     <t>CS_S3_Worldtree</t>
@@ -725,26 +719,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>미니 게임 코드1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>도움말 텍스트 코드1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>미니 게임 코드2</t>
-  </si>
-  <si>
     <t>도움말 텍스트 코드2</t>
-  </si>
-  <si>
-    <t>MiniGameLeftID1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniGameRightID2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FunctionID</t>
@@ -775,6 +754,34 @@
   <si>
     <t xml:space="preserve">포탈 미니게임은 왼쪽/오른쪽 화면에 1,2stage에서 해왔던 왼쪽/오른쪽미니게임들이 일정 시간(MiniGameTable 참조)마다 랜덤으로 등장합니다.
 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniGameLeftID1</t>
+  </si>
+  <si>
+    <t>MiniGameRightID2</t>
+  </si>
+  <si>
+    <t>MiniGameCenterID</t>
+  </si>
+  <si>
+    <t>MiniGameHelpStringID3</t>
+  </si>
+  <si>
+    <t>왼쪽 미니 게임 코드1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 미니 게임 코드2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 미니 게임 코드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움말 텍스트 코드3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1856,7 +1863,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1864,7 +1871,7 @@
     <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
@@ -1872,46 +1879,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1919,21 +1934,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1952,8 +1971,12 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
       <c r="H4" s="2">
         <v>-1</v>
       </c>
@@ -1974,8 +1997,12 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
       <c r="H5" s="2">
         <v>-1</v>
       </c>
@@ -1996,8 +2023,12 @@
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
       <c r="H6" s="2">
         <v>-1</v>
       </c>
@@ -2018,8 +2049,12 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
       <c r="H7" s="2">
         <v>-1</v>
       </c>
@@ -2040,8 +2075,12 @@
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
       <c r="H8" s="2">
         <v>-1</v>
       </c>
@@ -2062,8 +2101,12 @@
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
       <c r="H9" s="2">
         <v>-1</v>
       </c>
@@ -2072,20 +2115,24 @@
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>-1</v>
       </c>
@@ -2094,20 +2141,24 @@
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>-1</v>
       </c>
@@ -2116,20 +2167,24 @@
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2">
         <v>-1</v>
       </c>
@@ -2138,11 +2193,11 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
+      <c r="B13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-1</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -2150,30 +2205,38 @@
       <c r="E13" s="2">
         <v>-1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>-1</v>
       </c>
@@ -2190,7 +2253,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2203,34 +2266,34 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
